--- a/input_data/Temperature/Heal the Bay Temperature Logging Coordinates.xlsx
+++ b/input_data/Temperature/Heal the Bay Temperature Logging Coordinates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katieirving/Documents/Documents - Katie’s MacBook Pro/git/SGR_Temp_Benthic/input_data/Temperature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE2E937F-F04A-1F4D-81C3-7BA3AE46CD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85966D6-4FC9-D740-8389-D04EC0761754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76760" yWindow="2340" windowWidth="21260" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="1100" windowWidth="21260" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Rio Hondo Confluence</t>
   </si>
@@ -77,13 +77,22 @@
   </si>
   <si>
     <t>21150075 (washed away)</t>
+  </si>
+  <si>
+    <t>LA Downtown</t>
+  </si>
+  <si>
+    <t>Air Temperature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +105,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF444444"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -192,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -234,6 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,17 +530,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -676,6 +692,20 @@
         <v>21150068</v>
       </c>
     </row>
+    <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="19">
+        <v>34.023600000000002</v>
+      </c>
+      <c r="C12" s="19">
+        <v>-118.2911</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
